--- a/data/hanzo-cloud/hanzo-message-consumer-one_structure.xlsx
+++ b/data/hanzo-cloud/hanzo-message-consumer-one_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="52">
   <si>
     <t>Class Name</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -653,7 +650,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -675,45 +672,23 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>50</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
